--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>339.4154793333333</v>
+        <v>90.56466633333334</v>
       </c>
       <c r="H2">
-        <v>1018.246438</v>
+        <v>271.693999</v>
       </c>
       <c r="I2">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831797</v>
       </c>
       <c r="J2">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831796</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.6162516666666668</v>
+        <v>0.01843866666666667</v>
       </c>
       <c r="N2">
-        <v>1.848755</v>
+        <v>0.055316</v>
       </c>
       <c r="O2">
-        <v>0.2229389881401</v>
+        <v>0.006626284774039569</v>
       </c>
       <c r="P2">
-        <v>0.2229389881401</v>
+        <v>0.006626284774039568</v>
       </c>
       <c r="Q2">
-        <v>209.1653548316322</v>
+        <v>1.669891694298222</v>
       </c>
       <c r="R2">
-        <v>1882.48819348469</v>
+        <v>15.029025248684</v>
       </c>
       <c r="S2">
-        <v>0.1156840289773398</v>
+        <v>0.001480834584454605</v>
       </c>
       <c r="T2">
-        <v>0.1156840289773398</v>
+        <v>0.001480834584454604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>339.4154793333333</v>
+        <v>90.56466633333334</v>
       </c>
       <c r="H3">
-        <v>1018.246438</v>
+        <v>271.693999</v>
       </c>
       <c r="I3">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831797</v>
       </c>
       <c r="J3">
-        <v>0.5189044318468032</v>
+        <v>0.2234788625831796</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.147965</v>
+        <v>0.6162516666666668</v>
       </c>
       <c r="N3">
-        <v>6.443894999999999</v>
+        <v>1.848755</v>
       </c>
       <c r="O3">
-        <v>0.7770610118599</v>
+        <v>0.2214617309174475</v>
       </c>
       <c r="P3">
-        <v>0.7770610118599</v>
+        <v>0.2214617309174475</v>
       </c>
       <c r="Q3">
-        <v>729.0525700662232</v>
+        <v>55.81062656902723</v>
       </c>
       <c r="R3">
-        <v>6561.473130596009</v>
+        <v>502.2956391212451</v>
       </c>
       <c r="S3">
-        <v>0.4032204028694634</v>
+        <v>0.04949201573113336</v>
       </c>
       <c r="T3">
-        <v>0.4032204028694634</v>
+        <v>0.04949201573113335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>243.634776</v>
+        <v>90.56466633333334</v>
       </c>
       <c r="H4">
-        <v>730.9043280000001</v>
+        <v>271.693999</v>
       </c>
       <c r="I4">
-        <v>0.3724731861573274</v>
+        <v>0.2234788625831797</v>
       </c>
       <c r="J4">
-        <v>0.3724731861573274</v>
+        <v>0.2234788625831796</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6162516666666668</v>
+        <v>2.147965</v>
       </c>
       <c r="N4">
-        <v>1.848755</v>
+        <v>6.443894999999999</v>
       </c>
       <c r="O4">
-        <v>0.2229389881401</v>
+        <v>0.7719119843085129</v>
       </c>
       <c r="P4">
-        <v>0.2229389881401</v>
+        <v>0.7719119843085129</v>
       </c>
       <c r="Q4">
-        <v>150.14033676796</v>
+        <v>194.5297335206783</v>
       </c>
       <c r="R4">
-        <v>1351.26303091164</v>
+        <v>1750.767601686105</v>
       </c>
       <c r="S4">
-        <v>0.08303879523123368</v>
+        <v>0.1725060122675917</v>
       </c>
       <c r="T4">
-        <v>0.08303879523123368</v>
+        <v>0.1725060122675917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>730.9043280000001</v>
       </c>
       <c r="I5">
-        <v>0.3724731861573274</v>
+        <v>0.601197186834308</v>
       </c>
       <c r="J5">
-        <v>0.3724731861573274</v>
+        <v>0.6011971868343079</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.147965</v>
+        <v>0.01843866666666667</v>
       </c>
       <c r="N5">
-        <v>6.443894999999999</v>
+        <v>0.055316</v>
       </c>
       <c r="O5">
-        <v>0.7770610118599</v>
+        <v>0.006626284774039569</v>
       </c>
       <c r="P5">
-        <v>0.7770610118599</v>
+        <v>0.006626284774039568</v>
       </c>
       <c r="Q5">
-        <v>523.31897163084</v>
+        <v>4.492300423072</v>
       </c>
       <c r="R5">
-        <v>4709.87074467756</v>
+        <v>40.430703807648</v>
       </c>
       <c r="S5">
-        <v>0.2894343909260937</v>
+        <v>0.003983703765315597</v>
       </c>
       <c r="T5">
-        <v>0.2894343909260937</v>
+        <v>0.003983703765315596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.049919</v>
+        <v>243.634776</v>
       </c>
       <c r="H6">
-        <v>213.149757</v>
+        <v>730.9043280000001</v>
       </c>
       <c r="I6">
-        <v>0.1086223819958692</v>
+        <v>0.601197186834308</v>
       </c>
       <c r="J6">
-        <v>0.1086223819958692</v>
+        <v>0.6011971868343079</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>1.848755</v>
       </c>
       <c r="O6">
-        <v>0.2229389881401</v>
+        <v>0.2214617309174475</v>
       </c>
       <c r="P6">
-        <v>0.2229389881401</v>
+        <v>0.2214617309174475</v>
       </c>
       <c r="Q6">
-        <v>43.78463100028168</v>
+        <v>150.14033676796</v>
       </c>
       <c r="R6">
-        <v>394.0616790025351</v>
+        <v>1351.26303091164</v>
       </c>
       <c r="S6">
-        <v>0.02421616393152651</v>
+        <v>0.1331421696190259</v>
       </c>
       <c r="T6">
-        <v>0.0242161639315265</v>
+        <v>0.1331421696190259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.049919</v>
+        <v>243.634776</v>
       </c>
       <c r="H7">
-        <v>213.149757</v>
+        <v>730.9043280000001</v>
       </c>
       <c r="I7">
-        <v>0.1086223819958692</v>
+        <v>0.601197186834308</v>
       </c>
       <c r="J7">
-        <v>0.1086223819958692</v>
+        <v>0.6011971868343079</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>6.443894999999999</v>
       </c>
       <c r="O7">
-        <v>0.7770610118599</v>
+        <v>0.7719119843085129</v>
       </c>
       <c r="P7">
-        <v>0.7770610118599</v>
+        <v>0.7719119843085129</v>
       </c>
       <c r="Q7">
+        <v>523.31897163084</v>
+      </c>
+      <c r="R7">
+        <v>4709.87074467756</v>
+      </c>
+      <c r="S7">
+        <v>0.4640713134499665</v>
+      </c>
+      <c r="T7">
+        <v>0.4640713134499664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>71.049919</v>
+      </c>
+      <c r="H8">
+        <v>213.149757</v>
+      </c>
+      <c r="I8">
+        <v>0.1753239505825123</v>
+      </c>
+      <c r="J8">
+        <v>0.1753239505825123</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01843866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.055316</v>
+      </c>
+      <c r="O8">
+        <v>0.006626284774039569</v>
+      </c>
+      <c r="P8">
+        <v>0.006626284774039568</v>
+      </c>
+      <c r="Q8">
+        <v>1.310065773134667</v>
+      </c>
+      <c r="R8">
+        <v>11.790591958212</v>
+      </c>
+      <c r="S8">
+        <v>0.001161746424269367</v>
+      </c>
+      <c r="T8">
+        <v>0.001161746424269367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>71.049919</v>
+      </c>
+      <c r="H9">
+        <v>213.149757</v>
+      </c>
+      <c r="I9">
+        <v>0.1753239505825123</v>
+      </c>
+      <c r="J9">
+        <v>0.1753239505825123</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.6162516666666668</v>
+      </c>
+      <c r="N9">
+        <v>1.848755</v>
+      </c>
+      <c r="O9">
+        <v>0.2214617309174475</v>
+      </c>
+      <c r="P9">
+        <v>0.2214617309174475</v>
+      </c>
+      <c r="Q9">
+        <v>43.78463100028168</v>
+      </c>
+      <c r="R9">
+        <v>394.0616790025351</v>
+      </c>
+      <c r="S9">
+        <v>0.0388275455672882</v>
+      </c>
+      <c r="T9">
+        <v>0.03882754556728819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>71.049919</v>
+      </c>
+      <c r="H10">
+        <v>213.149757</v>
+      </c>
+      <c r="I10">
+        <v>0.1753239505825123</v>
+      </c>
+      <c r="J10">
+        <v>0.1753239505825123</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.147965</v>
+      </c>
+      <c r="N10">
+        <v>6.443894999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.7719119843085129</v>
+      </c>
+      <c r="P10">
+        <v>0.7719119843085129</v>
+      </c>
+      <c r="Q10">
         <v>152.612739264835</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>1373.514653383515</v>
       </c>
-      <c r="S7">
-        <v>0.08440621806434273</v>
-      </c>
-      <c r="T7">
-        <v>0.08440621806434273</v>
+      <c r="S10">
+        <v>0.1353346585909547</v>
+      </c>
+      <c r="T10">
+        <v>0.1353346585909547</v>
       </c>
     </row>
   </sheetData>
